--- a/medicine/Mort/Crypte_royale_(Belgique)/Crypte_royale_(Belgique).xlsx
+++ b/medicine/Mort/Crypte_royale_(Belgique)/Crypte_royale_(Belgique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crypte royale de l'église Notre-Dame de Laeken à Laeken (Bruxelles), est la nécropole des monarques (rois des Belges) du royaume de Belgique et de leurs épouses, ainsi que de certains autres membres de la famille royale belge, tous issus de la maison de Saxe-Cobourg, branche cadette de la maison de Saxe-Cobourg et Gotha.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La crypte royale se trouve dans l'église Notre-Dame, au nord de Bruxelles, dans l'ancienne commune de Laeken. Derrière l'abside de l’église, sous une chapelle octogonale, se trouvent les caveaux de tous les souverains de Belgique, et membres proches de la famille royale, décédés depuis 1834. Les sarcophages sont disposés en cercle autour de celui de Léopold Ier et de son épouse, placé au centre de la crypte et surmonté d'une couronne.
 </t>
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que décédée à Ostende (1850), la première reine des Belges, Louise-Marie d'Orléans, souhaitait être enterrée à Laeken. Son corps reposera quelques années dans l'ancienne église de Laeken. Mais son époux, le roi Léopold Ier, jugea que l'endroit était indigne de la famille royale, et fit mettre en chantier une nouvelle et grande église de Laeken. Léopold Ier posa lui-même (en 1854) la première pierre du nouvel édifice, construit par Joseph Poelaert dans le style néo-gothique. Le bâtiment monumental est consacré en 1872 mais il ne sera achevé qu’en 1909, à la suite d'une longue interruption des travaux. 
 Des travaux d'agrandissement visant à accroître le nombre de caveaux sont confiés, entre 1932 et 1934, à Herman Lemaire, architecte principal au service des bâtiments. À cette occasion, l'accès à la crypte subit d'importantes modifications et deux chambres sépulcrales sont aménagées, dont les portails sont ornés de tympans représentant la mise au tombeau et la mort de la Vierge, d'après des dessins d'Herman Lemaire.
@@ -574,9 +590,11 @@
           <t>Personnes inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vingt et une personnalités royales sont inhumées dans la crypte, dont cinq rois, cinq reines, et une impératrice. En voici la liste chronologique par date de décès :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vingt et une personnalités royales sont inhumées dans la crypte, dont cinq rois, cinq reines, et une impératrice. En voici la liste chronologique par date de décès :
 Prince Louis-Philippe de Belgique, prince héritier de Belgique (24 juillet 1833 – 16 mai 1834) - (fils de Léopold Ier)
 Louise d'Orléans, reine des Belges (3 avril 1812 – 11 octobre 1850) - (seconde épouse de Léopold Ier)
 Léopold Ier, roi des Belges (16 décembre 1790 – 10 décembre 1865)
@@ -598,8 +616,43 @@
 Lilian Baels (28 novembre 1916 – 7 juin 2002) - (seconde épouse de Léopold III)
 Prince Alexandre de Belgique (18 juillet 1942 – 29 novembre 2009) - (fils de Léopold III) (il est enterré dans une chapelle attenante et pas dans la crypte même)
 Fabiola de Mora y Aragón, reine des Belges (11 juin 1928 – 5 décembre 2014) - (épouse du roi Baudouin)
-Membres de la famille royale qui sont inhumés ailleurs
-D'après royalty guide[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crypte_royale_(Belgique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crypte_royale_(Belgique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnes inhumées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Membres de la famille royale qui sont inhumés ailleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après royalty guide :
 Louise de Belgique, fille de Léopold II au Südfriedhof à Wiesbaden en Allemagne.
 Stéphanie de Belgique, fille de Léopold II au Benedikterstift, Pannonhalma en Hongrie.
 Clémentine de Belgique, fille de Léopold II à la Chapelle Impériale du Palais Fesch à Ajaccio (Haute-Corse, France), nécropole des Bonaparte.
